--- a/dictionary_for_database.xlsx
+++ b/dictionary_for_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shapovv/PycharmProjects/Radost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41902CEF-B3A8-CC4D-BB5E-87BA90CB5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14BE82E-A9F7-FA4E-998E-69DF37024A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="500" windowWidth="17340" windowHeight="17500" xr2:uid="{5429B6A6-3AB4-3F43-B880-B81809A67136}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
   <si>
     <t>analogue_1</t>
   </si>
@@ -449,9 +449,6 @@
     <t>2) Введите ваше ФИО на английском языке в формате "Ivanov_A_S"</t>
   </si>
   <si>
-    <t>&lt;b&gt;Приступим к созданию вашего технического задания.&lt;/b&gt;\n Сейчас мы поэтапно пройдём по всем пунктам, начиная с титульного листа и заканчивая списком литературы. Следуйте дальнейшим указаниям и подсказкам. \n\nВ любом месте вы можете остановиться и отправить ответ позднее, а если захотите закончить и получить не док онца заполненный документ, введите /stop. \n\nЕсли вы хотите пропустить любой шаг, необходимо отправить в ответ любой символ, тогда вы сможете заполнить этот раздел самостоятельно в итоговом документе.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Отлично! Теперь заполним титульный лист.&lt;/b&gt;\n\nВведите полное название ВУЗа, например "Национальный исследовательский университет Высшая Школа Экономики"</t>
   </si>
   <si>
@@ -480,6 +477,12 @@
   </si>
   <si>
     <t>Добро пожаловать в бота &lt;b&gt;"Радость Научника"&lt;/b&gt;!\n\nЯ помогу вам создать профессиональную техническую документацию, включая Титульный лист, Техническое задание и Пояснительную записку. Все документы будут оформлены согласно ГОСТам, что обеспечит точность и качество вашей работы.\n\nДля начала создания документации рыберите, какой документ вы бы хотели создать и следуйте дальнейшим инструкциям. Я буду задавать вам вопросы и предоставлю готовые документы на основе ваших ответов.\n\nС &lt;b&gt;"Радостью Научника"&lt;/b&gt; ваша техническая документация будет всегда на высоте!</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Напоминание:&lt;/b&gt; не забудбте заполнить до конца все приложения и проставить количество листов на листе утверждения!</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Приступим к созданию вашего технического задания.&lt;/b&gt;\nСейчас мы поэтапно пройдём по всем пунктам, начиная с титульного листа и заканчивая списком литературы. Следуйте дальнейшим указаниям и подсказкам. \n\nВ любом месте вы можете остановиться и отправить ответ позднее, а если захотите закончить и получить не док онца заполненный документ, введите /stop. \n\nЕсли вы хотите пропустить любой шаг, необходимо отправить в ответ любой символ, тогда вы сможете заполнить этот раздел самостоятельно в итоговом документе.</t>
   </si>
 </sst>
 </file>
@@ -861,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90374932-3BD5-7B45-8650-D95A2EC64DDF}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,7 +887,7 @@
     <row r="2" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -892,12 +895,12 @@
     <row r="3" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -913,7 +916,7 @@
         <v>('&lt;b&gt;Чтобы в дальнейшем корректно сохранить документ, ответьте на два вопроса:&lt;/b&gt;\n\n1) Введите год выполнения работы, например "2023":', 'year'),</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>130</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1654,7 +1657,7 @@
         <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1663,6 +1666,11 @@
       <c r="D51" s="1" t="str">
         <f t="shared" si="3"/>
         <v>('&lt;b&gt;Заключительный раздел "Список использованных источников".&lt;/b&gt;\n\nПо умолчанию в него включены 12 основных ГОСТ-ов, по которым оформляется пояснительная записка. Чтобы добавить свои источники, введите их через перевод строки в одном сообщении\n\nПодсказка: чтобы оформить список литературы по ГОСТу рекомендуем воспользоваться сайтом - https://open-resource.ru/spisok-literatury/:', 'sources'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +1895,7 @@
         <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>"'"&amp;A15&amp;"': '',"</f>
@@ -2211,7 +2219,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ref="C6:C18" si="0">"'"&amp;A6&amp;"': '',"</f>
@@ -2291,7 +2299,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2384,10 +2392,10 @@
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2419,7 +2427,7 @@
         <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" ref="C19:C24" si="6">"'"&amp;A19&amp;"': '',"</f>
@@ -2435,7 +2443,7 @@
         <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2691,7 +2699,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2707,7 +2715,7 @@
         <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="8"/>

--- a/dictionary_for_database.xlsx
+++ b/dictionary_for_database.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shapovv/PycharmProjects/Radost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14BE82E-A9F7-FA4E-998E-69DF37024A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F945FBDC-508B-384D-B4DE-CD27D47CBF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="17340" windowHeight="17500" xr2:uid="{5429B6A6-3AB4-3F43-B880-B81809A67136}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="25580" windowHeight="17500" activeTab="1" xr2:uid="{5429B6A6-3AB4-3F43-B880-B81809A67136}"/>
   </bookViews>
   <sheets>
     <sheet name="Техническое задание" sheetId="1" r:id="rId1"/>
     <sheet name="Титульный лист" sheetId="2" r:id="rId2"/>
     <sheet name="Пояснительная записка" sheetId="3" r:id="rId3"/>
+    <sheet name="Отзыв руководителя" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc134566627" localSheetId="2">'Пояснительная записка'!$B$25</definedName>
@@ -35,20 +36,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t>analogue_1</t>
   </si>
@@ -347,9 +340,6 @@
     <t>Введите полное название ВУЗа, например "Национальный исследовательский университет Высшая Школа Экономики"</t>
   </si>
   <si>
-    <t>&lt;b&gt;Приступим к созданию вашего титульного листа.&lt;b&gt;\n Сейчас мы поэтапно пройдём по всем пунктам, следуйте дальнейшим указаниям и подсказкам. \n\nВ любом месте вы можете остановиться и отправить ответ позднее, а если захотите закончить и получить не до конца заполненный документ, введите /stop. \n\nЕсли вы хотите пропустить любой шаг, необходимо отправить в ответ любой символ, тогда вы сможете заполнить этот раздел самостоятельно в итоговом документе.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Переходим к заполнению раздела "Введение".&lt;/b&gt;\n\nВведите основания для разработки, это может быть, например, указ ректора или учебный план</t>
   </si>
   <si>
@@ -483,13 +473,115 @@
   </si>
   <si>
     <t>&lt;b&gt;Приступим к созданию вашего технического задания.&lt;/b&gt;\nСейчас мы поэтапно пройдём по всем пунктам, начиная с титульного листа и заканчивая списком литературы. Следуйте дальнейшим указаниям и подсказкам. \n\nВ любом месте вы можете остановиться и отправить ответ позднее, а если захотите закончить и получить не док онца заполненный документ, введите /stop. \n\nЕсли вы хотите пропустить любой шаг, необходимо отправить в ответ любой символ, тогда вы сможете заполнить этот раздел самостоятельно в итоговом документе.</t>
+  </si>
+  <si>
+    <t>Введите ФИО исполнителя в родительном падеже, например "Иванова Ивана Ивановича"</t>
+  </si>
+  <si>
+    <t>grade_1</t>
+  </si>
+  <si>
+    <t>grade_2</t>
+  </si>
+  <si>
+    <t>grade_3</t>
+  </si>
+  <si>
+    <t>grade_4</t>
+  </si>
+  <si>
+    <t>grade_5</t>
+  </si>
+  <si>
+    <t>grade_6</t>
+  </si>
+  <si>
+    <t>grade_7</t>
+  </si>
+  <si>
+    <t>grade_8</t>
+  </si>
+  <si>
+    <t>grade_9</t>
+  </si>
+  <si>
+    <t>grade_10</t>
+  </si>
+  <si>
+    <t>grade_11</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале четкость и корректность формулировки целей и задач проекта (функциональных и нефункциональных требований к проекту)</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале полноту использования источников информации (книги, статьи, электронная библиотека НИУ ВШЭ, интернет-ресурсы и пр.), анализа аналогов</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале  сложность и/или объемность проведенного исследования, теоретической составляющей работы</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале сложность и/или объемность программной реализации, оригинальность и/или обоснованность предложенных технологических решений</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале достижение намеченной цели и выполнение поставленных задач проекта</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале оформление программной документации по ГОСТ 19 ЕСПД</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале Техническое задание (ГОСТ 19.201-7)</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале Пояснительную записку (полнота описания используемых математических методов, моделей, алгоритмов) (ГОСТ 19.404-79)</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале Руководство оператора (ГОСТ 19.505-79) или Руководство программиста</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале Программу и методику испытаний (ГОСТ 19.301-79)</t>
+  </si>
+  <si>
+    <t>Оцените по 10-балльной шкале оформление списка использованных источников / Наличие ссылок на источники в текстах</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Укажите процент плагиата из системы Антиплагиат (не может превышать 40 % с учетом оформления по ГОСТ)</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>Напишите комменатрии к оценкам</t>
+  </si>
+  <si>
+    <t>grade_itog</t>
+  </si>
+  <si>
+    <t>Поставьте итоговую оценку, например "10 (ОТЛИЧНО)"</t>
+  </si>
+  <si>
+    <t>Введите ФИО руководителя в формате "Фамилия И. О."</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Введите дату в формате "ДД.ММ.ГГГГ"</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Приступим к созданию вашего отзыва руководителя на прикладной проект (НИУ ВШЭ).&lt;/b&gt;\n Сейчас мы поэтапно пройдём по всем пунктам, следуйте дальнейшим указаниям и подсказкам. \n\nВ любом месте вы можете остановиться и отправить ответ позднее, а если захотите закончить и получить не до конца заполненный документ, введите /stop. \n\nЕсли вы хотите пропустить любой шаг, необходимо отправить в ответ любой символ, тогда вы сможете заполнить этот раздел самостоятельно в итоговом документе.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Приступим к созданию вашего титульного листа.&lt;/b&gt;\n Сейчас мы поэтапно пройдём по всем пунктам, следуйте дальнейшим указаниям и подсказкам. \n\nВ любом месте вы можете остановиться и отправить ответ позднее, а если захотите закончить и получить не до конца заполненный документ, введите /stop. \n\nЕсли вы хотите пропустить любой шаг, необходимо отправить в ответ любой символ, тогда вы сможете заполнить этот раздел самостоятельно в итоговом документе.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,6 +607,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -536,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -548,6 +654,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -866,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90374932-3BD5-7B45-8650-D95A2EC64DDF}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,7 +996,7 @@
     <row r="2" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -895,7 +1004,7 @@
     <row r="3" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -905,7 +1014,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>"'"&amp;A4&amp;"': '',"</f>
@@ -918,10 +1027,10 @@
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>"'"&amp;A5&amp;"': '',"</f>
@@ -1017,7 +1126,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1657,7 +1766,7 @@
         <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1670,7 +1779,7 @@
     </row>
     <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1681,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB27001-DFD3-CC4B-88F3-8FAF982AB5DB}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,7 +1819,7 @@
     <row r="3" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1719,7 +1828,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>"'"&amp;A4&amp;"': '',"</f>
@@ -1732,10 +1841,10 @@
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>"'"&amp;A5&amp;"': '',"</f>
@@ -1754,11 +1863,11 @@
         <v>98</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" ref="C6:C11" si="0">"'"&amp;A6&amp;"': '',"</f>
+        <f t="shared" ref="C6:C13" si="0">"'"&amp;A6&amp;"': '',"</f>
         <v>'university': '',</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" ref="D6:D11" si="1">"('"&amp;B6&amp;":', '"&amp;A6&amp;"'),"</f>
+        <f t="shared" ref="D6:D13" si="1">"('"&amp;B6&amp;":', '"&amp;A6&amp;"'),"</f>
         <v>('Введите полное название ВУЗа, например "Национальный исследовательский университет Высшая Школа Экономики":', 'university'),</v>
       </c>
     </row>
@@ -1828,135 +1937,155 @@
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'month': '',</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('&lt;b&gt;Теперь заполнима дату, когда будет подписана пояснительная записка.&lt;/b&gt;\n\n1) Введите месяц в родительном падеже, например "Мая":', 'month'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'day': '',</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('2) Введите число подписания, например "11":', 'day'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>'supervisor_post': '',</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>('Введите должность руководителя, согласовавшего документ, например "Научный руководитель, приглашенный преподаватель департамента программной инженерии":', 'supervisor_post'),</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" ref="C12:C14" si="4">"'"&amp;A12&amp;"': '',"</f>
+      <c r="C14" s="1" t="str">
+        <f t="shared" ref="C14:C16" si="4">"'"&amp;A14&amp;"': '',"</f>
         <v>'supervisor_name': '',</v>
       </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" ref="D12:D14" si="5">"('"&amp;B12&amp;":', '"&amp;A12&amp;"'),"</f>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ref="D14:D16" si="5">"('"&amp;B14&amp;":', '"&amp;A14&amp;"'),"</f>
         <v>('Введите ФИО руководителя, согласовавшего документ, в формате Фамилия И. О.:', 'supervisor_name'),</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="1" t="str">
+      <c r="B15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>'akad_post': '',</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="5"/>
         <v>('Введите должность руководителя, утвердившего документ, например "Академический руководитель образовательной программы «Программная инженерия», кандидат технических наук":', 'akad_post'),</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="4"/>
         <v>'akad_name': '',</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="5"/>
         <v>('Введите ФИО руководителя, утвердившего документ, в формате Фамилия И. О.:', 'akad_name'),</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>"'"&amp;A15&amp;"': '',"</f>
-        <v>'number': '',</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>"('"&amp;B15&amp;":', '"&amp;A15&amp;"'),"</f>
-        <v>('Введите номер работы:\n\nПодсказка: в соответствии с ГОСТ 19.103-77 "Обозначения программ и программных документов", номер имеет вид &lt;b&gt;A.B.XXXXX-XX&lt;/b&gt;, где:\nA - Код страны; \nB - код организации-разработчика; \nXXXXX - регистрационный номер, который присваивается в соответствии с ОКП; \nXX - Номер редакции (в диапазоне 1-99).\n\nПодробнее можно прочитать по ссылке - https://www.swrit.ru/doc/espd/19.103-77.pdf:', 'number'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>"'"&amp;A16&amp;"': '',"</f>
-        <v>'student_name': '',</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>"('"&amp;B16&amp;":', '"&amp;A16&amp;"'),"</f>
-        <v>('Введите ФИО исполнителя в формате Фамилия И. О.:', 'student_name'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>"'"&amp;A17&amp;"': '',"</f>
-        <v>'group_number': '',</v>
+        <v>'number': '',</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>"('"&amp;B17&amp;":', '"&amp;A17&amp;"'),"</f>
+        <v>('Введите номер работы:\n\nПодсказка: в соответствии с ГОСТ 19.103-77 "Обозначения программ и программных документов", номер имеет вид &lt;b&gt;A.B.XXXXX-XX&lt;/b&gt;, где:\nA - Код страны; \nB - код организации-разработчика; \nXXXXX - регистрационный номер, который присваивается в соответствии с ОКП; \nXX - Номер редакции (в диапазоне 1-99).\n\nПодробнее можно прочитать по ссылке - https://www.swrit.ru/doc/espd/19.103-77.pdf:', 'number'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>"'"&amp;A18&amp;"': '',"</f>
+        <v>'student_name': '',</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>"('"&amp;B18&amp;":', '"&amp;A18&amp;"'),"</f>
+        <v>('Введите ФИО исполнителя в формате Фамилия И. О.:', 'student_name'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>"'"&amp;A19&amp;"': '',"</f>
+        <v>'group_number': '',</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>"('"&amp;B19&amp;":', '"&amp;A19&amp;"'),"</f>
         <v>('Введите номер группы, например "БПИ217":', 'group_number'),</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
@@ -2135,10 +2264,22 @@
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2151,7 +2292,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2177,7 +2318,7 @@
     <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2187,7 +2328,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>"'"&amp;A4&amp;"': '',"</f>
@@ -2200,10 +2341,10 @@
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>"'"&amp;A5&amp;"': '',"</f>
@@ -2219,7 +2360,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ref="C6:C18" si="0">"'"&amp;A6&amp;"': '',"</f>
@@ -2299,7 +2440,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2347,7 +2488,7 @@
         <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" ref="C14" si="4">"'"&amp;A14&amp;"': '',"</f>
@@ -2392,10 +2533,10 @@
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2424,10 +2565,10 @@
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" ref="C19:C24" si="6">"'"&amp;A19&amp;"': '',"</f>
@@ -2440,10 +2581,10 @@
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2459,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2475,7 +2616,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2507,7 +2648,7 @@
         <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2520,10 +2661,10 @@
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" ref="C25:C38" si="8">"'"&amp;A25&amp;"': '',"</f>
@@ -2536,10 +2677,10 @@
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2552,10 +2693,10 @@
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2568,10 +2709,10 @@
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2584,10 +2725,10 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2600,10 +2741,10 @@
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2616,10 +2757,10 @@
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2632,10 +2773,10 @@
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2651,7 +2792,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2664,7 +2805,7 @@
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>73</v>
@@ -2680,10 +2821,10 @@
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2699,7 +2840,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2712,10 +2853,10 @@
     </row>
     <row r="37" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2728,10 +2869,10 @@
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2860,4 +3001,440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02D252-78E7-FC41-B82C-BC4C18664558}">
+  <dimension ref="A3:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>"'"&amp;A4&amp;"': '',"</f>
+        <v>'year': '',</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>"('"&amp;B4&amp;":', '"&amp;A4&amp;"'),"</f>
+        <v>('&lt;b&gt;Чтобы в дальнейшем корректно сохранить документ, ответьте на два вопроса:&lt;/b&gt;\n\n1) Введите год выполнения работы, например "2023":', 'year'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>"'"&amp;A5&amp;"': '',"</f>
+        <v>'second_name': '',</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>"('"&amp;B5&amp;":', '"&amp;A5&amp;"'),"</f>
+        <v>('2) Введите ваше ФИО на английском языке в формате "Ivanov_A_S":', 'second_name'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>"'"&amp;A6&amp;"': '',"</f>
+        <v>'group_number': '',</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>"('"&amp;B6&amp;":', '"&amp;A6&amp;"'),"</f>
+        <v>('Введите номер группы, например "БПИ217":', 'group_number'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>"'"&amp;A7&amp;"': '',"</f>
+        <v>'student_name': '',</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>"('"&amp;B7&amp;":', '"&amp;A7&amp;"'),"</f>
+        <v>('Введите ФИО исполнителя в родительном падеже, например "Иванова Ивана Ивановича":', 'student_name'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>"'"&amp;A8&amp;"': '',"</f>
+        <v>'project_name': '',</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>"('"&amp;B8&amp;":', '"&amp;A8&amp;"'),"</f>
+        <v>('Введите название работы, например «Генератор документации "Радость Научника"»:', 'project_name'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" ref="C9:C24" si="0">"'"&amp;A9&amp;"': '',"</f>
+        <v>'grade_1': '',</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" ref="D9:D24" si="1">"('"&amp;B9&amp;":', '"&amp;A9&amp;"'),"</f>
+        <v>('Оцените по 10-балльной шкале четкость и корректность формулировки целей и задач проекта (функциональных и нефункциональных требований к проекту):', 'grade_1'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_2': '',</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале полноту использования источников информации (книги, статьи, электронная библиотека НИУ ВШЭ, интернет-ресурсы и пр.), анализа аналогов:', 'grade_2'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_3': '',</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале  сложность и/или объемность проведенного исследования, теоретической составляющей работы:', 'grade_3'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_4': '',</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале сложность и/или объемность программной реализации, оригинальность и/или обоснованность предложенных технологических решений:', 'grade_4'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_5': '',</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале достижение намеченной цели и выполнение поставленных задач проекта:', 'grade_5'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_6': '',</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале оформление программной документации по ГОСТ 19 ЕСПД:', 'grade_6'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_7': '',</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале Техническое задание (ГОСТ 19.201-7):', 'grade_7'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_8': '',</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале Пояснительную записку (полнота описания используемых математических методов, моделей, алгоритмов) (ГОСТ 19.404-79):', 'grade_8'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_9': '',</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале Руководство оператора (ГОСТ 19.505-79) или Руководство программиста:', 'grade_9'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_10': '',</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале Программу и методику испытаний (ГОСТ 19.301-79):', 'grade_10'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_11': '',</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Оцените по 10-балльной шкале оформление списка использованных источников / Наличие ссылок на источники в текстах:', 'grade_11'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'percentage': '',</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Укажите процент плагиата из системы Антиплагиат (не может превышать 40 % с учетом оформления по ГОСТ):', 'percentage'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'feedback': '',</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Напишите комменатрии к оценкам:', 'feedback'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'grade_itog': '',</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Поставьте итоговую оценку, например "10 (ОТЛИЧНО)":', 'grade_itog'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'supervisor_name': '',</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Введите ФИО руководителя в формате "Фамилия И. О.":', 'supervisor_name'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'date': '',</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>('Введите дату в формате "ДД.ММ.ГГГГ":', 'date'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>